--- a/biology/Botanique/Impatiens_letouzeyi/Impatiens_letouzeyi.xlsx
+++ b/biology/Botanique/Impatiens_letouzeyi/Impatiens_letouzeyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Impatiens letouzeyi Grey-Wilson est une espèce de plantes à fleurs de la famille des Balsaminaceae et du genre Impatiens, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique letouzeyi rend hommage au botaniste français René Letouzey qui a découvert l'holotype en août 1975 dans les monts Bakossi, entre Ekona et Boubaji, près de Supe, à 40 km au nord de Kumba dans la Région du Sud-Ouest (Cameroun)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique letouzeyi rend hommage au botaniste français René Letouzey qui a découvert l'holotype en août 1975 dans les monts Bakossi, entre Ekona et Boubaji, près de Supe, à 40 km au nord de Kumba dans la Région du Sud-Ouest (Cameroun).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe épiphyte pérenne robuste, dotée des plus grandes fleurs du genre Impatiens de tout le Cameroun, voire d'Afrique[3]. On la reconnaît aisément à la fin de la saison des pluies à ses fleurs tombées sous l'arbre[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe épiphyte pérenne robuste, dotée des plus grandes fleurs du genre Impatiens de tout le Cameroun, voire d'Afrique. On la reconnaît aisément à la fin de la saison des pluies à ses fleurs tombées sous l'arbre.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du Cameroun, l'espèce n'a longtemps été connue qu'à travers le spécimen-type trouvé par Letouzey. Elle a été redécouverte en 1998 par une équipe dirigée par George Gosline. Il s'est avéré qu'elle était relativement commune aux environs de Kodmin-Edib[4]. Par la suite elle a également été localisée dans les monts Lebialem[5].
-Elle est néanmoins considérée comme une « espèce en danger », du fait de la perte de son habitat liée à l'extension des terres agricoles et à la construction d'un barrage[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du Cameroun, l'espèce n'a longtemps été connue qu'à travers le spécimen-type trouvé par Letouzey. Elle a été redécouverte en 1998 par une équipe dirigée par George Gosline. Il s'est avéré qu'elle était relativement commune aux environs de Kodmin-Edib. Par la suite elle a également été localisée dans les monts Lebialem.
+Elle est néanmoins considérée comme une « espèce en danger », du fait de la perte de son habitat liée à l'extension des terres agricoles et à la construction d'un barrage.
 </t>
         </is>
       </c>
